--- a/1_3_y_4_Concepto_tecnico_y_sectorial_2025.xlsx
+++ b/1_3_y_4_Concepto_tecnico_y_sectorial_2025.xlsx
@@ -2311,7 +2311,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K61"/>
+  <dimension ref="A1:K79"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" topLeftCell="A9" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A15" sqref="A15:XFD17"/>
@@ -2368,7 +2368,7 @@
       <c r="C3" s="162" t="n"/>
       <c r="D3" s="163" t="inlineStr">
         <is>
-          <t>Fortalecimiento del proceso de compras en la secretaria de Hacienda</t>
+          <t>El mejor proyecto del cauca</t>
         </is>
       </c>
       <c r="E3" s="164" t="n"/>
@@ -2398,7 +2398,7 @@
         </is>
       </c>
       <c r="C5" s="166" t="n">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="D5" s="167" t="n"/>
       <c r="E5" s="32" t="inlineStr">
@@ -2408,7 +2408,7 @@
       </c>
       <c r="F5" s="168" t="inlineStr">
         <is>
-          <t>Secretaría de Hacienda</t>
+          <t>Emcaservicios</t>
         </is>
       </c>
       <c r="G5" s="164" t="n"/>
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="C8" s="174" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D8" s="162" t="n"/>
       <c r="E8" s="32" t="inlineStr">
@@ -2462,7 +2462,7 @@
       </c>
       <c r="F8" s="175" t="inlineStr">
         <is>
-          <t>Ambiente y Desarrollo Sostenible</t>
+          <t>Salud y protección social</t>
         </is>
       </c>
       <c r="G8" s="164" t="n"/>
@@ -2478,7 +2478,7 @@
         </is>
       </c>
       <c r="C9" s="174" t="n">
-        <v>3206</v>
+        <v>1903</v>
       </c>
       <c r="D9" s="162" t="n"/>
       <c r="E9" s="32" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="F9" s="175" t="inlineStr">
         <is>
-          <t>Gestión del cambio climático para un desarrollo bajo en carbono y resiliente al clima</t>
+          <t>Inspección, vigilancia y control</t>
         </is>
       </c>
       <c r="G9" s="164" t="n"/>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="C10" s="117" t="inlineStr">
         <is>
-          <t>Cauca Productivo y sostenible</t>
+          <t>Buen Gobierno y Gestión Institucional</t>
         </is>
       </c>
       <c r="D10" s="164" t="n"/>
@@ -2537,7 +2537,7 @@
       </c>
       <c r="C12" s="176" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>81</t>
         </is>
       </c>
       <c r="D12" s="164" t="n"/>
@@ -2557,7 +2557,7 @@
       </c>
       <c r="C13" s="177" t="inlineStr">
         <is>
-          <t>Servicio de educación informal en gestión del cambio climático para un desarrollo bajo en carbono y resiliente al clima</t>
+          <t>Servicio de análisis de laboratorio</t>
         </is>
       </c>
       <c r="D13" s="160" t="n"/>
@@ -2589,7 +2589,7 @@
       </c>
       <c r="C15" s="178" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>82</t>
         </is>
       </c>
       <c r="D15" s="164" t="n"/>
@@ -2609,7 +2609,7 @@
       </c>
       <c r="C16" s="179" t="inlineStr">
         <is>
-          <t>Estufa ecoeficiente fija</t>
+          <t>Servicio de asistencia técnica en inspección, vigilancia y control</t>
         </is>
       </c>
       <c r="D16" s="160" t="n"/>
@@ -2641,7 +2641,7 @@
       </c>
       <c r="C18" s="178" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>84</t>
         </is>
       </c>
       <c r="D18" s="164" t="n"/>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="C19" s="179" t="inlineStr">
         <is>
-          <t>Servicio de apoyo técnico para la implementación de acciones de mitigación y adaptación al cambio climático</t>
+          <t>Documentos de evaluación</t>
         </is>
       </c>
       <c r="D19" s="160" t="n"/>
@@ -2693,7 +2693,7 @@
       </c>
       <c r="C21" s="178" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>90</t>
         </is>
       </c>
       <c r="D21" s="164" t="n"/>
@@ -2713,7 +2713,7 @@
       </c>
       <c r="C22" s="179" t="inlineStr">
         <is>
-          <t>Servicio de educación informal en gestión del cambio climático para un desarrollo bajo en carbono y resiliente al clima</t>
+          <t>Servicio de inspección, vigilancia y control</t>
         </is>
       </c>
       <c r="D22" s="160" t="n"/>
@@ -2745,7 +2745,7 @@
       </c>
       <c r="C24" s="178" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>111</t>
         </is>
       </c>
       <c r="D24" s="164" t="n"/>
@@ -2765,7 +2765,7 @@
       </c>
       <c r="C25" s="179" t="inlineStr">
         <is>
-          <t>Servicio de educación formal en gestión del cambio climático para un desarrollo bajo en carbono y resiliente al clima</t>
+          <t>Servicio de auditoría y visitas inspectivas</t>
         </is>
       </c>
       <c r="D25" s="160" t="n"/>
@@ -2789,712 +2789,1056 @@
       <c r="J26" s="180" t="n"/>
       <c r="K26" s="181" t="n"/>
     </row>
-    <row r="27" ht="15" customFormat="1" customHeight="1" s="25">
-      <c r="B27" s="182" t="inlineStr">
-        <is>
-          <t>ESTRUCTURA FINANCIERA (en pesos)</t>
-        </is>
-      </c>
-      <c r="C27" s="160" t="n"/>
-      <c r="D27" s="160" t="n"/>
-      <c r="E27" s="160" t="n"/>
-      <c r="F27" s="160" t="n"/>
-      <c r="G27" s="160" t="n"/>
-      <c r="H27" s="160" t="n"/>
-      <c r="I27" s="160" t="n"/>
-      <c r="J27" s="160" t="n"/>
-      <c r="K27" s="161" t="n"/>
-    </row>
-    <row r="28" customFormat="1" s="25">
-      <c r="B28" s="110" t="inlineStr">
-        <is>
-          <t>ENTIDAD</t>
-        </is>
-      </c>
-      <c r="C28" s="111" t="inlineStr">
-        <is>
-          <t>VIGENCIA</t>
+    <row r="27" ht="18.75" customFormat="1" customHeight="1" s="25">
+      <c r="B27" s="33" t="inlineStr">
+        <is>
+          <t>NÚMERO DE META</t>
+        </is>
+      </c>
+      <c r="C27" s="178" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="D27" s="164" t="n"/>
+      <c r="E27" s="164" t="n"/>
+      <c r="F27" s="164" t="n"/>
+      <c r="G27" s="164" t="n"/>
+      <c r="H27" s="164" t="n"/>
+      <c r="I27" s="164" t="n"/>
+      <c r="J27" s="164" t="n"/>
+      <c r="K27" s="165" t="n"/>
+    </row>
+    <row r="28" ht="68.25" customFormat="1" customHeight="1" s="25">
+      <c r="B28" s="17" t="inlineStr">
+        <is>
+          <t>META DE CUATRIENIO</t>
+        </is>
+      </c>
+      <c r="C28" s="179" t="inlineStr">
+        <is>
+          <t>Servicio de inspección, vigilancia y control</t>
         </is>
       </c>
       <c r="D28" s="160" t="n"/>
       <c r="E28" s="160" t="n"/>
       <c r="F28" s="160" t="n"/>
-      <c r="G28" s="162" t="n"/>
-      <c r="H28" s="112" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="I28" s="169" t="n"/>
-      <c r="J28" s="169" t="n"/>
-      <c r="K28" s="170" t="n"/>
-    </row>
-    <row r="29" customFormat="1" s="25">
-      <c r="B29" s="183" t="n"/>
-      <c r="C29" s="111" t="n">
-        <v>2024</v>
-      </c>
-      <c r="D29" s="162" t="n"/>
-      <c r="E29" s="112" t="n">
-        <v>2025</v>
-      </c>
-      <c r="F29" s="112" t="n">
-        <v>2026</v>
-      </c>
-      <c r="G29" s="112" t="n">
-        <v>2027</v>
-      </c>
-      <c r="H29" s="184" t="n"/>
-      <c r="I29" s="172" t="n"/>
-      <c r="J29" s="172" t="n"/>
-      <c r="K29" s="173" t="n"/>
-    </row>
-    <row r="30" customFormat="1" s="25">
-      <c r="B30" s="22" t="inlineStr">
-        <is>
-          <t>DEPARTAMENTO</t>
-        </is>
-      </c>
-      <c r="C30" s="99" t="n"/>
-      <c r="D30" s="167" t="n"/>
-      <c r="E30" s="99" t="n"/>
-      <c r="F30" s="99" t="n"/>
-      <c r="G30" s="99" t="n"/>
-      <c r="H30" s="100">
-        <f>IFERROR(SUM(C30:G30),"")</f>
-        <v/>
-      </c>
-      <c r="I30" s="160" t="n"/>
-      <c r="J30" s="160" t="n"/>
-      <c r="K30" s="162" t="n"/>
-    </row>
-    <row r="31" customFormat="1" s="25">
-      <c r="B31" s="22" t="inlineStr">
-        <is>
-          <t>MUNICIPIO</t>
-        </is>
-      </c>
-      <c r="C31" s="99" t="n"/>
-      <c r="D31" s="167" t="n"/>
-      <c r="E31" s="99" t="n"/>
-      <c r="F31" s="99" t="n"/>
-      <c r="G31" s="99" t="n"/>
-      <c r="H31" s="100">
-        <f>IFERROR(SUM(C31:G31),"")</f>
-        <v/>
-      </c>
+      <c r="G28" s="160" t="n"/>
+      <c r="H28" s="160" t="n"/>
+      <c r="I28" s="160" t="n"/>
+      <c r="J28" s="160" t="n"/>
+      <c r="K28" s="161" t="n"/>
+    </row>
+    <row r="29" ht="3.75" customFormat="1" customHeight="1" s="25">
+      <c r="B29" s="18" t="n"/>
+      <c r="C29" s="180" t="n"/>
+      <c r="D29" s="180" t="n"/>
+      <c r="E29" s="180" t="n"/>
+      <c r="F29" s="180" t="n"/>
+      <c r="G29" s="180" t="n"/>
+      <c r="H29" s="180" t="n"/>
+      <c r="I29" s="180" t="n"/>
+      <c r="J29" s="180" t="n"/>
+      <c r="K29" s="181" t="n"/>
+    </row>
+    <row r="30" ht="18.75" customFormat="1" customHeight="1" s="25">
+      <c r="B30" s="33" t="inlineStr">
+        <is>
+          <t>NÚMERO DE META</t>
+        </is>
+      </c>
+      <c r="C30" s="178" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="D30" s="164" t="n"/>
+      <c r="E30" s="164" t="n"/>
+      <c r="F30" s="164" t="n"/>
+      <c r="G30" s="164" t="n"/>
+      <c r="H30" s="164" t="n"/>
+      <c r="I30" s="164" t="n"/>
+      <c r="J30" s="164" t="n"/>
+      <c r="K30" s="165" t="n"/>
+    </row>
+    <row r="31" ht="68.25" customFormat="1" customHeight="1" s="25">
+      <c r="B31" s="17" t="inlineStr">
+        <is>
+          <t>META DE CUATRIENIO</t>
+        </is>
+      </c>
+      <c r="C31" s="179" t="inlineStr">
+        <is>
+          <t>Servicio de evaluación, aprobación y seguimiento de planes de gestión integral del riesgo</t>
+        </is>
+      </c>
+      <c r="D31" s="160" t="n"/>
+      <c r="E31" s="160" t="n"/>
+      <c r="F31" s="160" t="n"/>
+      <c r="G31" s="160" t="n"/>
+      <c r="H31" s="160" t="n"/>
       <c r="I31" s="160" t="n"/>
       <c r="J31" s="160" t="n"/>
-      <c r="K31" s="162" t="n"/>
-    </row>
-    <row r="32" customFormat="1" s="25">
-      <c r="B32" s="22" t="inlineStr">
-        <is>
-          <t>NACION</t>
-        </is>
-      </c>
-      <c r="C32" s="99" t="n"/>
-      <c r="D32" s="167" t="n"/>
-      <c r="E32" s="99" t="n"/>
-      <c r="F32" s="99" t="n"/>
-      <c r="G32" s="99" t="n"/>
-      <c r="H32" s="100">
-        <f>IFERROR(SUM(C32:G32),"")</f>
-        <v/>
-      </c>
-      <c r="I32" s="160" t="n"/>
-      <c r="J32" s="160" t="n"/>
-      <c r="K32" s="162" t="n"/>
-    </row>
-    <row r="33" customFormat="1" s="25">
-      <c r="B33" s="22" t="inlineStr">
-        <is>
-          <t>OTRO</t>
-        </is>
-      </c>
-      <c r="C33" s="99" t="n"/>
-      <c r="D33" s="167" t="n"/>
-      <c r="E33" s="99" t="n"/>
-      <c r="F33" s="99" t="n"/>
-      <c r="G33" s="99" t="n"/>
-      <c r="H33" s="100">
-        <f>IFERROR(SUM(C33:G33),"")</f>
-        <v/>
-      </c>
-      <c r="I33" s="160" t="n"/>
-      <c r="J33" s="160" t="n"/>
-      <c r="K33" s="162" t="n"/>
-    </row>
-    <row r="34" customFormat="1" s="25">
-      <c r="B34" s="23" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C34" s="102">
-        <f>IFERROR(SUM(C30:D33),"")</f>
-        <v/>
-      </c>
-      <c r="D34" s="162" t="n"/>
-      <c r="E34" s="102">
-        <f>IFERROR(SUM(E30:E33),"")</f>
-        <v/>
-      </c>
-      <c r="F34" s="102">
-        <f>IFERROR(SUM(F30:F33),"")</f>
-        <v/>
-      </c>
-      <c r="G34" s="102">
-        <f>IFERROR(SUM(G30:G33),"")</f>
-        <v/>
-      </c>
-      <c r="H34" s="100">
-        <f>IFERROR(SUM(C34:G34),"")</f>
-        <v/>
-      </c>
+      <c r="K31" s="161" t="n"/>
+    </row>
+    <row r="32" ht="3.75" customFormat="1" customHeight="1" s="25">
+      <c r="B32" s="18" t="n"/>
+      <c r="C32" s="180" t="n"/>
+      <c r="D32" s="180" t="n"/>
+      <c r="E32" s="180" t="n"/>
+      <c r="F32" s="180" t="n"/>
+      <c r="G32" s="180" t="n"/>
+      <c r="H32" s="180" t="n"/>
+      <c r="I32" s="180" t="n"/>
+      <c r="J32" s="180" t="n"/>
+      <c r="K32" s="181" t="n"/>
+    </row>
+    <row r="33" ht="18.75" customFormat="1" customHeight="1" s="25">
+      <c r="B33" s="33" t="inlineStr">
+        <is>
+          <t>NÚMERO DE META</t>
+        </is>
+      </c>
+      <c r="C33" s="178" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="D33" s="164" t="n"/>
+      <c r="E33" s="164" t="n"/>
+      <c r="F33" s="164" t="n"/>
+      <c r="G33" s="164" t="n"/>
+      <c r="H33" s="164" t="n"/>
+      <c r="I33" s="164" t="n"/>
+      <c r="J33" s="164" t="n"/>
+      <c r="K33" s="165" t="n"/>
+    </row>
+    <row r="34" ht="68.25" customFormat="1" customHeight="1" s="25">
+      <c r="B34" s="17" t="inlineStr">
+        <is>
+          <t>META DE CUATRIENIO</t>
+        </is>
+      </c>
+      <c r="C34" s="179" t="inlineStr">
+        <is>
+          <t>Servicio del ejercicio del procedimiento administrativo sancionatorio</t>
+        </is>
+      </c>
+      <c r="D34" s="160" t="n"/>
+      <c r="E34" s="160" t="n"/>
+      <c r="F34" s="160" t="n"/>
+      <c r="G34" s="160" t="n"/>
+      <c r="H34" s="160" t="n"/>
       <c r="I34" s="160" t="n"/>
       <c r="J34" s="160" t="n"/>
-      <c r="K34" s="162" t="n"/>
+      <c r="K34" s="161" t="n"/>
     </row>
     <row r="35" ht="3.75" customHeight="1">
-      <c r="B35" s="159" t="n"/>
-      <c r="C35" s="160" t="n"/>
-      <c r="D35" s="160" t="n"/>
-      <c r="E35" s="160" t="n"/>
-      <c r="F35" s="160" t="n"/>
-      <c r="G35" s="160" t="n"/>
-      <c r="H35" s="160" t="n"/>
-      <c r="I35" s="160" t="n"/>
-      <c r="J35" s="160" t="n"/>
-      <c r="K35" s="161" t="n"/>
-    </row>
-    <row r="36" ht="9.75" customHeight="1">
-      <c r="A36" s="90" t="n"/>
-      <c r="B36" s="91" t="inlineStr">
-        <is>
-          <t>VARIABLES ANALIZADAS</t>
-        </is>
-      </c>
-      <c r="C36" s="169" t="n"/>
-      <c r="D36" s="169" t="n"/>
-      <c r="E36" s="169" t="n"/>
-      <c r="F36" s="169" t="n"/>
-      <c r="G36" s="170" t="n"/>
-      <c r="H36" s="113" t="inlineStr">
-        <is>
-          <t>CUMPLE</t>
-        </is>
-      </c>
-      <c r="I36" s="169" t="n"/>
-      <c r="J36" s="169" t="n"/>
-      <c r="K36" s="185" t="n"/>
-    </row>
-    <row r="37" ht="8.25" customHeight="1" thickBot="1">
-      <c r="B37" s="171" t="n"/>
-      <c r="C37" s="172" t="n"/>
-      <c r="D37" s="172" t="n"/>
-      <c r="E37" s="172" t="n"/>
-      <c r="F37" s="172" t="n"/>
-      <c r="G37" s="173" t="n"/>
-      <c r="H37" s="184" t="n"/>
-      <c r="I37" s="172" t="n"/>
-      <c r="J37" s="172" t="n"/>
-      <c r="K37" s="186" t="n"/>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="B38" s="85" t="inlineStr">
-        <is>
-          <t>ES COMPETENCIA DE LA DEPENDENCIA SECTORIAL PROPONENTE, LA IMPLEMENTACIÓN DEL PROYECTO?</t>
-        </is>
-      </c>
-      <c r="C38" s="160" t="n"/>
-      <c r="D38" s="160" t="n"/>
-      <c r="E38" s="160" t="n"/>
-      <c r="F38" s="160" t="n"/>
-      <c r="G38" s="162" t="n"/>
-      <c r="H38" s="187" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="I38" s="164" t="n"/>
-      <c r="J38" s="164" t="n"/>
-      <c r="K38" s="165" t="n"/>
-    </row>
-    <row r="39" ht="26.25" customHeight="1">
-      <c r="B39" s="85" t="inlineStr">
-        <is>
-          <t>LAS METAS  DEL PROYECTO, ESTAN CLARAMENTE DEFINIDAS Y CUANTIFICADAS Y CONTRINUYEN EFECTIVAMENTE AL LOGRO DE METAS DEL PROGRAMA DEL PLAN DEPARTAMENTAL DE DESARROLLO</t>
-        </is>
-      </c>
-      <c r="C39" s="160" t="n"/>
-      <c r="D39" s="160" t="n"/>
-      <c r="E39" s="160" t="n"/>
-      <c r="F39" s="160" t="n"/>
-      <c r="G39" s="162" t="n"/>
-      <c r="H39" s="187" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
+      <c r="B35" s="18" t="n"/>
+      <c r="C35" s="180" t="n"/>
+      <c r="D35" s="180" t="n"/>
+      <c r="E35" s="180" t="n"/>
+      <c r="F35" s="180" t="n"/>
+      <c r="G35" s="180" t="n"/>
+      <c r="H35" s="180" t="n"/>
+      <c r="I35" s="180" t="n"/>
+      <c r="J35" s="180" t="n"/>
+      <c r="K35" s="181" t="n"/>
+    </row>
+    <row r="36" ht="18.75" customHeight="1">
+      <c r="B36" s="33" t="inlineStr">
+        <is>
+          <t>NÚMERO DE META</t>
+        </is>
+      </c>
+      <c r="C36" s="178" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="D36" s="164" t="n"/>
+      <c r="E36" s="164" t="n"/>
+      <c r="F36" s="164" t="n"/>
+      <c r="G36" s="164" t="n"/>
+      <c r="H36" s="164" t="n"/>
+      <c r="I36" s="164" t="n"/>
+      <c r="J36" s="164" t="n"/>
+      <c r="K36" s="165" t="n"/>
+    </row>
+    <row r="37" ht="68.25" customHeight="1" thickBot="1">
+      <c r="B37" s="17" t="inlineStr">
+        <is>
+          <t>META DE CUATRIENIO</t>
+        </is>
+      </c>
+      <c r="C37" s="179" t="inlineStr">
+        <is>
+          <t>Servicio de información para la gestión de la inspección, vigilancia y control sanitario</t>
+        </is>
+      </c>
+      <c r="D37" s="160" t="n"/>
+      <c r="E37" s="160" t="n"/>
+      <c r="F37" s="160" t="n"/>
+      <c r="G37" s="160" t="n"/>
+      <c r="H37" s="160" t="n"/>
+      <c r="I37" s="160" t="n"/>
+      <c r="J37" s="160" t="n"/>
+      <c r="K37" s="161" t="n"/>
+    </row>
+    <row r="38" ht="3.75" customHeight="1">
+      <c r="B38" s="18" t="n"/>
+      <c r="C38" s="180" t="n"/>
+      <c r="D38" s="180" t="n"/>
+      <c r="E38" s="180" t="n"/>
+      <c r="F38" s="180" t="n"/>
+      <c r="G38" s="180" t="n"/>
+      <c r="H38" s="180" t="n"/>
+      <c r="I38" s="180" t="n"/>
+      <c r="J38" s="180" t="n"/>
+      <c r="K38" s="181" t="n"/>
+    </row>
+    <row r="39" ht="18.75" customHeight="1">
+      <c r="B39" s="33" t="inlineStr">
+        <is>
+          <t>NÚMERO DE META</t>
+        </is>
+      </c>
+      <c r="C39" s="178" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="D39" s="164" t="n"/>
+      <c r="E39" s="164" t="n"/>
+      <c r="F39" s="164" t="n"/>
+      <c r="G39" s="164" t="n"/>
+      <c r="H39" s="164" t="n"/>
       <c r="I39" s="164" t="n"/>
       <c r="J39" s="164" t="n"/>
       <c r="K39" s="165" t="n"/>
     </row>
-    <row r="40" ht="17.25" customHeight="1">
-      <c r="B40" s="85" t="inlineStr">
-        <is>
-          <t>EL PROYECTO DA RESPUESTA A LAS NECESIDADES DEL SECTOR PARA EL QUE FUE FORMULADO</t>
-        </is>
-      </c>
-      <c r="C40" s="160" t="n"/>
+    <row r="40" ht="68.25" customHeight="1">
+      <c r="B40" s="17" t="inlineStr">
+        <is>
+          <t>META DE CUATRIENIO</t>
+        </is>
+      </c>
+      <c r="C40" s="179" t="inlineStr">
+        <is>
+          <t>Documentos de lineamientos técnicos</t>
+        </is>
+      </c>
       <c r="D40" s="160" t="n"/>
       <c r="E40" s="160" t="n"/>
       <c r="F40" s="160" t="n"/>
-      <c r="G40" s="162" t="n"/>
-      <c r="H40" s="187" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="I40" s="164" t="n"/>
-      <c r="J40" s="164" t="n"/>
-      <c r="K40" s="165" t="n"/>
-    </row>
-    <row r="41" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B41" s="85" t="inlineStr">
-        <is>
-          <t>EL PROBLEMA ESTA BIEN DEFINIDO, SON CLARAS SUS CAUSAS Y SUS EFETOS DIRECTOS E INDIRECTOS</t>
-        </is>
-      </c>
-      <c r="C41" s="160" t="n"/>
-      <c r="D41" s="160" t="n"/>
-      <c r="E41" s="160" t="n"/>
-      <c r="F41" s="160" t="n"/>
-      <c r="G41" s="162" t="n"/>
-      <c r="H41" s="187" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="I41" s="164" t="n"/>
-      <c r="J41" s="164" t="n"/>
-      <c r="K41" s="165" t="n"/>
-    </row>
-    <row r="42" ht="17.25" customHeight="1">
-      <c r="B42" s="85" t="inlineStr">
-        <is>
-          <t>ESTAN CLARAMENTE DETERMINADOS EL OBJETIVO GENERAL Y LOS OBJETIVOS ESPECIFICOS</t>
-        </is>
-      </c>
-      <c r="C42" s="160" t="n"/>
-      <c r="D42" s="160" t="n"/>
-      <c r="E42" s="160" t="n"/>
-      <c r="F42" s="160" t="n"/>
-      <c r="G42" s="162" t="n"/>
-      <c r="H42" s="187" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="G40" s="160" t="n"/>
+      <c r="H40" s="160" t="n"/>
+      <c r="I40" s="160" t="n"/>
+      <c r="J40" s="160" t="n"/>
+      <c r="K40" s="161" t="n"/>
+    </row>
+    <row r="41" ht="3.75" customHeight="1" thickBot="1">
+      <c r="B41" s="18" t="n"/>
+      <c r="C41" s="180" t="n"/>
+      <c r="D41" s="180" t="n"/>
+      <c r="E41" s="180" t="n"/>
+      <c r="F41" s="180" t="n"/>
+      <c r="G41" s="180" t="n"/>
+      <c r="H41" s="180" t="n"/>
+      <c r="I41" s="180" t="n"/>
+      <c r="J41" s="180" t="n"/>
+      <c r="K41" s="181" t="n"/>
+    </row>
+    <row r="42" ht="18.75" customHeight="1">
+      <c r="B42" s="33" t="inlineStr">
+        <is>
+          <t>NÚMERO DE META</t>
+        </is>
+      </c>
+      <c r="C42" s="178" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="D42" s="164" t="n"/>
+      <c r="E42" s="164" t="n"/>
+      <c r="F42" s="164" t="n"/>
+      <c r="G42" s="164" t="n"/>
+      <c r="H42" s="164" t="n"/>
       <c r="I42" s="164" t="n"/>
       <c r="J42" s="164" t="n"/>
       <c r="K42" s="165" t="n"/>
     </row>
-    <row r="43" ht="17.25" customHeight="1">
-      <c r="B43" s="85" t="inlineStr">
-        <is>
-          <t>EL PROYECTO TIENE DEFINIDA LA LOCALIZACIÓN DE LA INTERVENCIÓN</t>
-        </is>
-      </c>
-      <c r="C43" s="160" t="n"/>
+    <row r="43" ht="68.25" customHeight="1">
+      <c r="B43" s="17" t="inlineStr">
+        <is>
+          <t>META DE CUATRIENIO</t>
+        </is>
+      </c>
+      <c r="C43" s="179" t="inlineStr">
+        <is>
+          <t>Servicio de asistencia técnica en inspección, vigilancia y control</t>
+        </is>
+      </c>
       <c r="D43" s="160" t="n"/>
       <c r="E43" s="160" t="n"/>
       <c r="F43" s="160" t="n"/>
-      <c r="G43" s="162" t="n"/>
-      <c r="H43" s="187" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="I43" s="164" t="n"/>
-      <c r="J43" s="164" t="n"/>
-      <c r="K43" s="165" t="n"/>
-    </row>
-    <row r="44" ht="17.25" customHeight="1">
-      <c r="B44" s="85" t="inlineStr">
-        <is>
-          <t>EL PROYECTO TIENE DEFINIDA LA POBLACIÓN OBJETO DE LA INTERVENCIÓN</t>
-        </is>
-      </c>
-      <c r="C44" s="160" t="n"/>
-      <c r="D44" s="160" t="n"/>
-      <c r="E44" s="160" t="n"/>
-      <c r="F44" s="160" t="n"/>
-      <c r="G44" s="162" t="n"/>
-      <c r="H44" s="187" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="I44" s="164" t="n"/>
-      <c r="J44" s="164" t="n"/>
-      <c r="K44" s="165" t="n"/>
-    </row>
-    <row r="45" ht="17.25" customHeight="1">
-      <c r="B45" s="85" t="inlineStr">
-        <is>
-          <t>LA ALTERNATIVA SELECCIONADA SOLUCIONA EFECTIVAMENTE EL PROBLEMA ENUNCIADO POR ESTA DEPENDENCIA</t>
+      <c r="G43" s="160" t="n"/>
+      <c r="H43" s="160" t="n"/>
+      <c r="I43" s="160" t="n"/>
+      <c r="J43" s="160" t="n"/>
+      <c r="K43" s="161" t="n"/>
+    </row>
+    <row r="44" ht="3.75" customHeight="1">
+      <c r="B44" s="18" t="n"/>
+      <c r="C44" s="180" t="n"/>
+      <c r="D44" s="180" t="n"/>
+      <c r="E44" s="180" t="n"/>
+      <c r="F44" s="180" t="n"/>
+      <c r="G44" s="180" t="n"/>
+      <c r="H44" s="180" t="n"/>
+      <c r="I44" s="180" t="n"/>
+      <c r="J44" s="180" t="n"/>
+      <c r="K44" s="181" t="n"/>
+    </row>
+    <row r="45" ht="15" customHeight="1">
+      <c r="B45" s="182" t="inlineStr">
+        <is>
+          <t>ESTRUCTURA FINANCIERA (en pesos)</t>
         </is>
       </c>
       <c r="C45" s="160" t="n"/>
       <c r="D45" s="160" t="n"/>
       <c r="E45" s="160" t="n"/>
       <c r="F45" s="160" t="n"/>
-      <c r="G45" s="162" t="n"/>
-      <c r="H45" s="187" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="I45" s="164" t="n"/>
-      <c r="J45" s="164" t="n"/>
-      <c r="K45" s="165" t="n"/>
-    </row>
-    <row r="46" ht="17.25" customHeight="1">
-      <c r="B46" s="85" t="inlineStr">
-        <is>
-          <t>LAS ACTIVIDADES PLANTEADAS SON COHERENTES CON LOS PRODUCTOS Y ESTOS CON  LOS OBJETIVOS ESPECIFICOS</t>
-        </is>
-      </c>
-      <c r="C46" s="160" t="n"/>
+      <c r="G45" s="160" t="n"/>
+      <c r="H45" s="160" t="n"/>
+      <c r="I45" s="160" t="n"/>
+      <c r="J45" s="160" t="n"/>
+      <c r="K45" s="161" t="n"/>
+    </row>
+    <row r="46">
+      <c r="B46" s="110" t="inlineStr">
+        <is>
+          <t>ENTIDAD</t>
+        </is>
+      </c>
+      <c r="C46" s="111" t="inlineStr">
+        <is>
+          <t>VIGENCIA</t>
+        </is>
+      </c>
       <c r="D46" s="160" t="n"/>
       <c r="E46" s="160" t="n"/>
       <c r="F46" s="160" t="n"/>
       <c r="G46" s="162" t="n"/>
-      <c r="H46" s="187" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="I46" s="164" t="n"/>
-      <c r="J46" s="164" t="n"/>
-      <c r="K46" s="165" t="n"/>
-    </row>
-    <row r="47" ht="6.75" customHeight="1">
-      <c r="B47" s="159" t="n"/>
-      <c r="C47" s="160" t="n"/>
-      <c r="D47" s="160" t="n"/>
-      <c r="E47" s="160" t="n"/>
-      <c r="F47" s="160" t="n"/>
-      <c r="G47" s="160" t="n"/>
-      <c r="H47" s="160" t="n"/>
-      <c r="I47" s="160" t="n"/>
-      <c r="J47" s="160" t="n"/>
-      <c r="K47" s="161" t="n"/>
-    </row>
-    <row r="48" ht="21" customHeight="1">
-      <c r="B48" s="73" t="inlineStr">
-        <is>
-          <t>El proyecto se articula a las siguientes políticas transversales definidas por el gobierno nacional</t>
-        </is>
-      </c>
-      <c r="C48" s="160" t="n"/>
-      <c r="D48" s="160" t="n"/>
-      <c r="E48" s="160" t="n"/>
-      <c r="F48" s="160" t="n"/>
-      <c r="G48" s="160" t="n"/>
-      <c r="H48" s="160" t="n"/>
+      <c r="H46" s="112" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="I46" s="169" t="n"/>
+      <c r="J46" s="169" t="n"/>
+      <c r="K46" s="170" t="n"/>
+    </row>
+    <row r="47">
+      <c r="B47" s="183" t="n"/>
+      <c r="C47" s="111" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D47" s="162" t="n"/>
+      <c r="E47" s="112" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F47" s="112" t="n">
+        <v>2026</v>
+      </c>
+      <c r="G47" s="112" t="n">
+        <v>2027</v>
+      </c>
+      <c r="H47" s="184" t="n"/>
+      <c r="I47" s="172" t="n"/>
+      <c r="J47" s="172" t="n"/>
+      <c r="K47" s="173" t="n"/>
+    </row>
+    <row r="48">
+      <c r="B48" s="22" t="inlineStr">
+        <is>
+          <t>DEPARTAMENTO</t>
+        </is>
+      </c>
+      <c r="C48" s="99" t="n">
+        <v>123</v>
+      </c>
+      <c r="D48" s="167" t="n"/>
+      <c r="E48" s="99" t="n">
+        <v>123</v>
+      </c>
+      <c r="F48" s="99" t="n">
+        <v>123</v>
+      </c>
+      <c r="G48" s="99" t="n">
+        <v>123</v>
+      </c>
+      <c r="H48" s="100">
+        <f>IFERROR(SUM(C48:G48),"")</f>
+        <v/>
+      </c>
       <c r="I48" s="160" t="n"/>
       <c r="J48" s="160" t="n"/>
       <c r="K48" s="162" t="n"/>
     </row>
-    <row r="49" ht="3.75" customHeight="1" thickBot="1">
-      <c r="B49" s="188" t="n"/>
-      <c r="C49" s="169" t="n"/>
-      <c r="D49" s="169" t="n"/>
-      <c r="E49" s="169" t="n"/>
-      <c r="F49" s="169" t="n"/>
-      <c r="G49" s="169" t="n"/>
-      <c r="H49" s="169" t="n"/>
-      <c r="I49" s="169" t="n"/>
-      <c r="J49" s="169" t="n"/>
-      <c r="K49" s="185" t="n"/>
-    </row>
-    <row r="50" ht="41.25" customHeight="1">
-      <c r="B50" s="189" t="inlineStr">
+    <row r="49" thickBot="1">
+      <c r="B49" s="22" t="inlineStr">
+        <is>
+          <t>MUNICIPIO</t>
+        </is>
+      </c>
+      <c r="C49" s="99" t="n">
+        <v>123</v>
+      </c>
+      <c r="D49" s="167" t="n"/>
+      <c r="E49" s="99" t="n">
+        <v>123</v>
+      </c>
+      <c r="F49" s="99" t="n">
+        <v>123</v>
+      </c>
+      <c r="G49" s="99" t="n">
+        <v>123</v>
+      </c>
+      <c r="H49" s="100">
+        <f>IFERROR(SUM(C49:G49),"")</f>
+        <v/>
+      </c>
+      <c r="I49" s="160" t="n"/>
+      <c r="J49" s="160" t="n"/>
+      <c r="K49" s="162" t="n"/>
+    </row>
+    <row r="50">
+      <c r="B50" s="22" t="inlineStr">
+        <is>
+          <t>NACION</t>
+        </is>
+      </c>
+      <c r="C50" s="99" t="n">
+        <v>123</v>
+      </c>
+      <c r="D50" s="167" t="n"/>
+      <c r="E50" s="99" t="n">
+        <v>123</v>
+      </c>
+      <c r="F50" s="99" t="n">
+        <v>123</v>
+      </c>
+      <c r="G50" s="99" t="n">
+        <v>123</v>
+      </c>
+      <c r="H50" s="100">
+        <f>IFERROR(SUM(C50:G50),"")</f>
+        <v/>
+      </c>
+      <c r="I50" s="160" t="n"/>
+      <c r="J50" s="160" t="n"/>
+      <c r="K50" s="162" t="n"/>
+    </row>
+    <row r="51">
+      <c r="B51" s="22" t="inlineStr">
+        <is>
+          <t>OTRO</t>
+        </is>
+      </c>
+      <c r="C51" s="99" t="n">
+        <v>123</v>
+      </c>
+      <c r="D51" s="167" t="n"/>
+      <c r="E51" s="99" t="n">
+        <v>123</v>
+      </c>
+      <c r="F51" s="99" t="n">
+        <v>123</v>
+      </c>
+      <c r="G51" s="99" t="n">
+        <v>123</v>
+      </c>
+      <c r="H51" s="100">
+        <f>IFERROR(SUM(C51:G51),"")</f>
+        <v/>
+      </c>
+      <c r="I51" s="160" t="n"/>
+      <c r="J51" s="160" t="n"/>
+      <c r="K51" s="162" t="n"/>
+    </row>
+    <row r="52">
+      <c r="B52" s="23" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="C52" s="102">
+        <f>IFERROR(SUM(C48:D51),"")</f>
+        <v/>
+      </c>
+      <c r="D52" s="162" t="n"/>
+      <c r="E52" s="102">
+        <f>IFERROR(SUM(E48:E51),"")</f>
+        <v/>
+      </c>
+      <c r="F52" s="102">
+        <f>IFERROR(SUM(F48:F51),"")</f>
+        <v/>
+      </c>
+      <c r="G52" s="102">
+        <f>IFERROR(SUM(G48:G51),"")</f>
+        <v/>
+      </c>
+      <c r="H52" s="100">
+        <f>IFERROR(SUM(C52:G52),"")</f>
+        <v/>
+      </c>
+      <c r="I52" s="160" t="n"/>
+      <c r="J52" s="160" t="n"/>
+      <c r="K52" s="162" t="n"/>
+    </row>
+    <row r="53" ht="3.75" customHeight="1">
+      <c r="B53" s="159" t="n"/>
+      <c r="C53" s="160" t="n"/>
+      <c r="D53" s="160" t="n"/>
+      <c r="E53" s="160" t="n"/>
+      <c r="F53" s="160" t="n"/>
+      <c r="G53" s="160" t="n"/>
+      <c r="H53" s="160" t="n"/>
+      <c r="I53" s="160" t="n"/>
+      <c r="J53" s="160" t="n"/>
+      <c r="K53" s="161" t="n"/>
+    </row>
+    <row r="54" ht="9.75" customHeight="1">
+      <c r="A54" s="90" t="n"/>
+      <c r="B54" s="91" t="inlineStr">
+        <is>
+          <t>VARIABLES ANALIZADAS</t>
+        </is>
+      </c>
+      <c r="C54" s="169" t="n"/>
+      <c r="D54" s="169" t="n"/>
+      <c r="E54" s="169" t="n"/>
+      <c r="F54" s="169" t="n"/>
+      <c r="G54" s="170" t="n"/>
+      <c r="H54" s="113" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+      <c r="I54" s="169" t="n"/>
+      <c r="J54" s="169" t="n"/>
+      <c r="K54" s="185" t="n"/>
+    </row>
+    <row r="55" ht="8.25" customHeight="1">
+      <c r="B55" s="171" t="n"/>
+      <c r="C55" s="172" t="n"/>
+      <c r="D55" s="172" t="n"/>
+      <c r="E55" s="172" t="n"/>
+      <c r="F55" s="172" t="n"/>
+      <c r="G55" s="173" t="n"/>
+      <c r="H55" s="184" t="n"/>
+      <c r="I55" s="172" t="n"/>
+      <c r="J55" s="172" t="n"/>
+      <c r="K55" s="186" t="n"/>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="B56" s="85" t="inlineStr">
+        <is>
+          <t>ES COMPETENCIA DE LA DEPENDENCIA SECTORIAL PROPONENTE, LA IMPLEMENTACIÓN DEL PROYECTO?</t>
+        </is>
+      </c>
+      <c r="C56" s="160" t="n"/>
+      <c r="D56" s="160" t="n"/>
+      <c r="E56" s="160" t="n"/>
+      <c r="F56" s="160" t="n"/>
+      <c r="G56" s="162" t="n"/>
+      <c r="H56" s="187" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="I56" s="164" t="n"/>
+      <c r="J56" s="164" t="n"/>
+      <c r="K56" s="165" t="n"/>
+    </row>
+    <row r="57" ht="26.25" customHeight="1">
+      <c r="B57" s="85" t="inlineStr">
+        <is>
+          <t>LAS METAS  DEL PROYECTO, ESTAN CLARAMENTE DEFINIDAS Y CUANTIFICADAS Y CONTRINUYEN EFECTIVAMENTE AL LOGRO DE METAS DEL PROGRAMA DEL PLAN DEPARTAMENTAL DE DESARROLLO</t>
+        </is>
+      </c>
+      <c r="C57" s="160" t="n"/>
+      <c r="D57" s="160" t="n"/>
+      <c r="E57" s="160" t="n"/>
+      <c r="F57" s="160" t="n"/>
+      <c r="G57" s="162" t="n"/>
+      <c r="H57" s="187" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="I57" s="164" t="n"/>
+      <c r="J57" s="164" t="n"/>
+      <c r="K57" s="165" t="n"/>
+    </row>
+    <row r="58" ht="17.25" customHeight="1">
+      <c r="B58" s="85" t="inlineStr">
+        <is>
+          <t>EL PROYECTO DA RESPUESTA A LAS NECESIDADES DEL SECTOR PARA EL QUE FUE FORMULADO</t>
+        </is>
+      </c>
+      <c r="C58" s="160" t="n"/>
+      <c r="D58" s="160" t="n"/>
+      <c r="E58" s="160" t="n"/>
+      <c r="F58" s="160" t="n"/>
+      <c r="G58" s="162" t="n"/>
+      <c r="H58" s="187" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="I58" s="164" t="n"/>
+      <c r="J58" s="164" t="n"/>
+      <c r="K58" s="165" t="n"/>
+    </row>
+    <row r="59" ht="17.25" customHeight="1">
+      <c r="B59" s="85" t="inlineStr">
+        <is>
+          <t>EL PROBLEMA ESTA BIEN DEFINIDO, SON CLARAS SUS CAUSAS Y SUS EFETOS DIRECTOS E INDIRECTOS</t>
+        </is>
+      </c>
+      <c r="C59" s="160" t="n"/>
+      <c r="D59" s="160" t="n"/>
+      <c r="E59" s="160" t="n"/>
+      <c r="F59" s="160" t="n"/>
+      <c r="G59" s="162" t="n"/>
+      <c r="H59" s="187" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="I59" s="164" t="n"/>
+      <c r="J59" s="164" t="n"/>
+      <c r="K59" s="165" t="n"/>
+    </row>
+    <row r="60" ht="17.25" customHeight="1">
+      <c r="B60" s="85" t="inlineStr">
+        <is>
+          <t>ESTAN CLARAMENTE DETERMINADOS EL OBJETIVO GENERAL Y LOS OBJETIVOS ESPECIFICOS</t>
+        </is>
+      </c>
+      <c r="C60" s="160" t="n"/>
+      <c r="D60" s="160" t="n"/>
+      <c r="E60" s="160" t="n"/>
+      <c r="F60" s="160" t="n"/>
+      <c r="G60" s="162" t="n"/>
+      <c r="H60" s="187" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I60" s="164" t="n"/>
+      <c r="J60" s="164" t="n"/>
+      <c r="K60" s="165" t="n"/>
+    </row>
+    <row r="61" ht="17.25" customFormat="1" customHeight="1" s="26">
+      <c r="B61" s="85" t="inlineStr">
+        <is>
+          <t>EL PROYECTO TIENE DEFINIDA LA LOCALIZACIÓN DE LA INTERVENCIÓN</t>
+        </is>
+      </c>
+      <c r="C61" s="160" t="n"/>
+      <c r="D61" s="160" t="n"/>
+      <c r="E61" s="160" t="n"/>
+      <c r="F61" s="160" t="n"/>
+      <c r="G61" s="162" t="n"/>
+      <c r="H61" s="187" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="I61" s="164" t="n"/>
+      <c r="J61" s="164" t="n"/>
+      <c r="K61" s="165" t="n"/>
+    </row>
+    <row r="62" ht="17.25" customFormat="1" customHeight="1" s="26">
+      <c r="B62" s="85" t="inlineStr">
+        <is>
+          <t>EL PROYECTO TIENE DEFINIDA LA POBLACIÓN OBJETO DE LA INTERVENCIÓN</t>
+        </is>
+      </c>
+      <c r="C62" s="160" t="n"/>
+      <c r="D62" s="160" t="n"/>
+      <c r="E62" s="160" t="n"/>
+      <c r="F62" s="160" t="n"/>
+      <c r="G62" s="162" t="n"/>
+      <c r="H62" s="187" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="I62" s="164" t="n"/>
+      <c r="J62" s="164" t="n"/>
+      <c r="K62" s="165" t="n"/>
+    </row>
+    <row r="63" ht="17.25" customFormat="1" customHeight="1" s="26">
+      <c r="B63" s="85" t="inlineStr">
+        <is>
+          <t>LA ALTERNATIVA SELECCIONADA SOLUCIONA EFECTIVAMENTE EL PROBLEMA ENUNCIADO POR ESTA DEPENDENCIA</t>
+        </is>
+      </c>
+      <c r="C63" s="160" t="n"/>
+      <c r="D63" s="160" t="n"/>
+      <c r="E63" s="160" t="n"/>
+      <c r="F63" s="160" t="n"/>
+      <c r="G63" s="162" t="n"/>
+      <c r="H63" s="187" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="I63" s="164" t="n"/>
+      <c r="J63" s="164" t="n"/>
+      <c r="K63" s="165" t="n"/>
+    </row>
+    <row r="64" ht="17.25" customFormat="1" customHeight="1" s="26">
+      <c r="B64" s="85" t="inlineStr">
+        <is>
+          <t>LAS ACTIVIDADES PLANTEADAS SON COHERENTES CON LOS PRODUCTOS Y ESTOS CON  LOS OBJETIVOS ESPECIFICOS</t>
+        </is>
+      </c>
+      <c r="C64" s="160" t="n"/>
+      <c r="D64" s="160" t="n"/>
+      <c r="E64" s="160" t="n"/>
+      <c r="F64" s="160" t="n"/>
+      <c r="G64" s="162" t="n"/>
+      <c r="H64" s="187" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="I64" s="164" t="n"/>
+      <c r="J64" s="164" t="n"/>
+      <c r="K64" s="165" t="n"/>
+    </row>
+    <row r="65" ht="6.75" customFormat="1" customHeight="1" s="26">
+      <c r="B65" s="159" t="n"/>
+      <c r="C65" s="160" t="n"/>
+      <c r="D65" s="160" t="n"/>
+      <c r="E65" s="160" t="n"/>
+      <c r="F65" s="160" t="n"/>
+      <c r="G65" s="160" t="n"/>
+      <c r="H65" s="160" t="n"/>
+      <c r="I65" s="160" t="n"/>
+      <c r="J65" s="160" t="n"/>
+      <c r="K65" s="161" t="n"/>
+    </row>
+    <row r="66" ht="21" customHeight="1">
+      <c r="B66" s="73" t="inlineStr">
+        <is>
+          <t>El proyecto se articula a las siguientes políticas transversales definidas por el gobierno nacional</t>
+        </is>
+      </c>
+      <c r="C66" s="160" t="n"/>
+      <c r="D66" s="160" t="n"/>
+      <c r="E66" s="160" t="n"/>
+      <c r="F66" s="160" t="n"/>
+      <c r="G66" s="160" t="n"/>
+      <c r="H66" s="160" t="n"/>
+      <c r="I66" s="160" t="n"/>
+      <c r="J66" s="160" t="n"/>
+      <c r="K66" s="162" t="n"/>
+    </row>
+    <row r="67" ht="3.75" customHeight="1">
+      <c r="B67" s="188" t="n"/>
+      <c r="C67" s="169" t="n"/>
+      <c r="D67" s="169" t="n"/>
+      <c r="E67" s="169" t="n"/>
+      <c r="F67" s="169" t="n"/>
+      <c r="G67" s="169" t="n"/>
+      <c r="H67" s="169" t="n"/>
+      <c r="I67" s="169" t="n"/>
+      <c r="J67" s="169" t="n"/>
+      <c r="K67" s="185" t="n"/>
+    </row>
+    <row r="68" ht="41.25" customHeight="1">
+      <c r="B68" s="189" t="inlineStr">
         <is>
           <t>POLÍTICA(S) TRANSVERSAL(ES)</t>
         </is>
       </c>
-      <c r="C50" s="157" t="n"/>
-      <c r="D50" s="190" t="n"/>
-      <c r="E50" s="191" t="inlineStr">
-        <is>
-          <t>Grupos Étnicos - Comunidades Afrocolombianas</t>
-        </is>
-      </c>
-      <c r="F50" s="192" t="n"/>
-      <c r="G50" s="191" t="inlineStr">
-        <is>
-          <t>Grupos Étnicos - Pueblo Rrom</t>
-        </is>
-      </c>
-      <c r="H50" s="193" t="n"/>
-      <c r="I50" s="193" t="n"/>
-      <c r="J50" s="193" t="n"/>
-      <c r="K50" s="192" t="n"/>
-    </row>
-    <row r="51" ht="39.75" customHeight="1">
-      <c r="B51" s="194" t="inlineStr">
+      <c r="C68" s="157" t="n"/>
+      <c r="D68" s="190" t="n"/>
+      <c r="E68" s="191" t="inlineStr">
+        <is>
+          <t>Actividades de Ciencia, Tecnología e Innovación</t>
+        </is>
+      </c>
+      <c r="F68" s="192" t="n"/>
+      <c r="G68" s="191" t="inlineStr">
+        <is>
+          <t>Participación ciudadana</t>
+        </is>
+      </c>
+      <c r="H68" s="193" t="n"/>
+      <c r="I68" s="193" t="n"/>
+      <c r="J68" s="193" t="n"/>
+      <c r="K68" s="192" t="n"/>
+    </row>
+    <row r="69" ht="39.75" customHeight="1">
+      <c r="B69" s="194" t="inlineStr">
         <is>
           <t>CATEGORÍA DE FOCALIZACIÓN</t>
         </is>
       </c>
-      <c r="C51" s="160" t="n"/>
-      <c r="D51" s="161" t="n"/>
-      <c r="E51" s="195" t="inlineStr">
-        <is>
-          <t>No Asociado a Organización</t>
-        </is>
-      </c>
-      <c r="F51" s="165" t="n"/>
-      <c r="G51" s="195" t="inlineStr">
-        <is>
-          <t>Comisión Nacional de Diálogo PND 2022 - 2026</t>
-        </is>
-      </c>
-      <c r="H51" s="164" t="n"/>
-      <c r="I51" s="164" t="n"/>
-      <c r="J51" s="164" t="n"/>
-      <c r="K51" s="165" t="n"/>
-    </row>
-    <row r="52" ht="54.75" customHeight="1">
-      <c r="B52" s="194" t="inlineStr">
+      <c r="C69" s="160" t="n"/>
+      <c r="D69" s="161" t="n"/>
+      <c r="E69" s="195" t="inlineStr">
+        <is>
+          <t>Apropiación social de la ciencia, tecnología e innovación</t>
+        </is>
+      </c>
+      <c r="F69" s="165" t="n"/>
+      <c r="G69" s="195" t="inlineStr">
+        <is>
+          <t>Fortalecimiento de procesos asociativos para organizaciones comunitarias y sociales  - Capacidades organizacionales</t>
+        </is>
+      </c>
+      <c r="H69" s="164" t="n"/>
+      <c r="I69" s="164" t="n"/>
+      <c r="J69" s="164" t="n"/>
+      <c r="K69" s="165" t="n"/>
+    </row>
+    <row r="70" ht="54.75" customHeight="1">
+      <c r="B70" s="194" t="inlineStr">
         <is>
           <t xml:space="preserve">SUBCATEGORÍA DE FOCALIZACIÓN		</t>
         </is>
       </c>
-      <c r="C52" s="160" t="n"/>
-      <c r="D52" s="161" t="n"/>
-      <c r="E52" s="195" t="inlineStr">
-        <is>
-          <t>No Asociado a Acuerdo</t>
-        </is>
-      </c>
-      <c r="F52" s="165" t="n"/>
-      <c r="G52" s="195" t="inlineStr">
-        <is>
-          <t>RT2-14 Diseñar e implementar de manera concertada una política pública de educación intercultural inicial, básica y media para el pueblo Rrom de acuerdo con sus usos y costumbres (idioma, kriss romaní, comercio, entre otros), que permita mantener la pervivencia cultural desde la crianza. Esta política deberá resolver la formación y certificación de profesores propios o gitanos, articulación con los Kher Rrom, el registro por resolución de la escuela propia por parte del ministerio de educación y todos los demás aspectos relacionados con la validación de la educación inicial, básica y media.</t>
-        </is>
-      </c>
-      <c r="H52" s="164" t="n"/>
-      <c r="I52" s="164" t="n"/>
-      <c r="J52" s="164" t="n"/>
-      <c r="K52" s="165" t="n"/>
-    </row>
-    <row r="53" ht="20.25" customHeight="1">
-      <c r="B53" s="196" t="inlineStr">
+      <c r="C70" s="160" t="n"/>
+      <c r="D70" s="161" t="n"/>
+      <c r="E70" s="195" t="inlineStr"/>
+      <c r="F70" s="165" t="n"/>
+      <c r="G70" s="195" t="inlineStr"/>
+      <c r="H70" s="164" t="n"/>
+      <c r="I70" s="164" t="n"/>
+      <c r="J70" s="164" t="n"/>
+      <c r="K70" s="165" t="n"/>
+    </row>
+    <row r="71" ht="20.25" customHeight="1">
+      <c r="B71" s="196" t="inlineStr">
         <is>
           <t>VALOR DESTINADO A LA POLÍTICA</t>
         </is>
       </c>
-      <c r="C53" s="197" t="n"/>
-      <c r="D53" s="198" t="n"/>
-      <c r="E53" s="199" t="n">
-        <v>245</v>
-      </c>
-      <c r="F53" s="200" t="n"/>
-      <c r="G53" s="199" t="n">
-        <v>12515</v>
-      </c>
-      <c r="H53" s="201" t="n"/>
-      <c r="I53" s="201" t="n"/>
-      <c r="J53" s="201" t="n"/>
-      <c r="K53" s="200" t="n"/>
-    </row>
-    <row r="54" ht="8.25" customHeight="1">
-      <c r="B54" s="202" t="n"/>
-      <c r="C54" s="172" t="n"/>
-      <c r="D54" s="172" t="n"/>
-      <c r="E54" s="172" t="n"/>
-      <c r="F54" s="172" t="n"/>
-      <c r="G54" s="172" t="n"/>
-      <c r="H54" s="172" t="n"/>
-      <c r="I54" s="172" t="n"/>
-      <c r="J54" s="172" t="n"/>
-      <c r="K54" s="186" t="n"/>
-    </row>
-    <row r="55" ht="15.5" customHeight="1">
-      <c r="B55" s="67" t="inlineStr">
+      <c r="C71" s="197" t="n"/>
+      <c r="D71" s="198" t="n"/>
+      <c r="E71" s="199" t="n">
+        <v>68</v>
+      </c>
+      <c r="F71" s="200" t="n"/>
+      <c r="G71" s="199" t="n">
+        <v>1900</v>
+      </c>
+      <c r="H71" s="201" t="n"/>
+      <c r="I71" s="201" t="n"/>
+      <c r="J71" s="201" t="n"/>
+      <c r="K71" s="200" t="n"/>
+    </row>
+    <row r="72" ht="8.25" customHeight="1">
+      <c r="B72" s="202" t="n"/>
+      <c r="C72" s="172" t="n"/>
+      <c r="D72" s="172" t="n"/>
+      <c r="E72" s="172" t="n"/>
+      <c r="F72" s="172" t="n"/>
+      <c r="G72" s="172" t="n"/>
+      <c r="H72" s="172" t="n"/>
+      <c r="I72" s="172" t="n"/>
+      <c r="J72" s="172" t="n"/>
+      <c r="K72" s="186" t="n"/>
+    </row>
+    <row r="73" ht="15.5" customHeight="1">
+      <c r="B73" s="67" t="inlineStr">
         <is>
           <t>Por lo anteriormente expuesto, se emite CONCEPTO SECTORIAL FAVORABLE</t>
         </is>
       </c>
-      <c r="C55" s="160" t="n"/>
-      <c r="D55" s="160" t="n"/>
-      <c r="E55" s="160" t="n"/>
-      <c r="F55" s="160" t="n"/>
-      <c r="G55" s="160" t="n"/>
-      <c r="H55" s="160" t="n"/>
-      <c r="I55" s="160" t="n"/>
-      <c r="J55" s="160" t="n"/>
-      <c r="K55" s="162" t="n"/>
-    </row>
-    <row r="56" ht="3.75" customHeight="1">
-      <c r="B56" s="203" t="n"/>
-      <c r="C56" s="169" t="n"/>
-      <c r="D56" s="169" t="n"/>
-      <c r="E56" s="169" t="n"/>
-      <c r="F56" s="169" t="n"/>
-      <c r="G56" s="169" t="n"/>
-      <c r="H56" s="169" t="n"/>
-      <c r="I56" s="169" t="n"/>
-      <c r="J56" s="169" t="n"/>
-      <c r="K56" s="185" t="n"/>
-    </row>
-    <row r="57" ht="15.5" customHeight="1">
-      <c r="B57" s="204" t="inlineStr">
+      <c r="C73" s="160" t="n"/>
+      <c r="D73" s="160" t="n"/>
+      <c r="E73" s="160" t="n"/>
+      <c r="F73" s="160" t="n"/>
+      <c r="G73" s="160" t="n"/>
+      <c r="H73" s="160" t="n"/>
+      <c r="I73" s="160" t="n"/>
+      <c r="J73" s="160" t="n"/>
+      <c r="K73" s="162" t="n"/>
+    </row>
+    <row r="74" ht="3.75" customHeight="1">
+      <c r="B74" s="203" t="n"/>
+      <c r="C74" s="169" t="n"/>
+      <c r="D74" s="169" t="n"/>
+      <c r="E74" s="169" t="n"/>
+      <c r="F74" s="169" t="n"/>
+      <c r="G74" s="169" t="n"/>
+      <c r="H74" s="169" t="n"/>
+      <c r="I74" s="169" t="n"/>
+      <c r="J74" s="169" t="n"/>
+      <c r="K74" s="185" t="n"/>
+    </row>
+    <row r="75" ht="15.5" customHeight="1">
+      <c r="B75" s="204" t="inlineStr">
         <is>
           <t>NOTA: El presente Concepto NO implica asignación de recursos</t>
         </is>
       </c>
-      <c r="K57" s="205" t="n"/>
-    </row>
-    <row r="58" ht="3.75" customHeight="1">
-      <c r="B58" s="206" t="n"/>
-      <c r="K58" s="205" t="n"/>
-    </row>
-    <row r="59" ht="15.5" customHeight="1">
-      <c r="B59" s="207" t="inlineStr">
+      <c r="K75" s="205" t="n"/>
+    </row>
+    <row r="76" ht="3.75" customHeight="1">
+      <c r="B76" s="206" t="n"/>
+      <c r="K76" s="205" t="n"/>
+    </row>
+    <row r="77" ht="15.5" customHeight="1">
+      <c r="B77" s="207" t="inlineStr">
         <is>
           <t>Para constancia se firma el día XXXX del mes de XXXXXXXXXXX del año  XXXXXXX.</t>
         </is>
       </c>
-      <c r="C59" s="208" t="n"/>
-      <c r="D59" s="208" t="n"/>
-      <c r="E59" s="208" t="n"/>
-      <c r="F59" s="208" t="n"/>
-      <c r="G59" s="208" t="n"/>
-      <c r="H59" s="208" t="n"/>
-      <c r="I59" s="208" t="n"/>
-      <c r="J59" s="208" t="n"/>
-      <c r="K59" s="209" t="n"/>
-    </row>
-    <row r="60" ht="43.5" customHeight="1">
-      <c r="B60" s="210" t="inlineStr">
+      <c r="C77" s="208" t="n"/>
+      <c r="D77" s="208" t="n"/>
+      <c r="E77" s="208" t="n"/>
+      <c r="F77" s="208" t="n"/>
+      <c r="G77" s="208" t="n"/>
+      <c r="H77" s="208" t="n"/>
+      <c r="I77" s="208" t="n"/>
+      <c r="J77" s="208" t="n"/>
+      <c r="K77" s="209" t="n"/>
+    </row>
+    <row r="78" ht="43.5" customHeight="1">
+      <c r="B78" s="210" t="inlineStr">
         <is>
           <t xml:space="preserve">
 __________________________________</t>
         </is>
       </c>
-      <c r="K60" s="205" t="n"/>
-    </row>
-    <row r="61" ht="20.25" customFormat="1" customHeight="1" s="26">
-      <c r="B61" s="211" t="inlineStr">
+      <c r="K78" s="205" t="n"/>
+    </row>
+    <row r="79" ht="20.25" customHeight="1">
+      <c r="B79" s="211" t="inlineStr">
         <is>
           <t>Jefe/secretario(a) de XXXXX</t>
         </is>
       </c>
-      <c r="C61" s="212" t="n"/>
-      <c r="D61" s="212" t="n"/>
-      <c r="E61" s="212" t="n"/>
-      <c r="F61" s="212" t="n"/>
-      <c r="G61" s="212" t="n"/>
-      <c r="H61" s="212" t="n"/>
-      <c r="I61" s="212" t="n"/>
-      <c r="J61" s="212" t="n"/>
-      <c r="K61" s="213" t="n"/>
-    </row>
-    <row r="62" customFormat="1" s="26"/>
-    <row r="63" customFormat="1" s="26"/>
-    <row r="64" customFormat="1" s="26"/>
-    <row r="65" customFormat="1" s="26"/>
+      <c r="C79" s="212" t="n"/>
+      <c r="D79" s="212" t="n"/>
+      <c r="E79" s="212" t="n"/>
+      <c r="F79" s="212" t="n"/>
+      <c r="G79" s="212" t="n"/>
+      <c r="H79" s="212" t="n"/>
+      <c r="I79" s="212" t="n"/>
+      <c r="J79" s="212" t="n"/>
+      <c r="K79" s="213" t="n"/>
+    </row>
   </sheetData>
-  <mergeCells count="83">
+  <mergeCells count="95">
     <mergeCell ref="C10:K10"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="H33:K33"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="B54:G55"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="C43:K43"/>
+    <mergeCell ref="G70:K70"/>
+    <mergeCell ref="C27:K27"/>
     <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B54:K54"/>
-    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C36:K36"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="B72:K72"/>
     <mergeCell ref="C19:K19"/>
-    <mergeCell ref="B56:K56"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="C28:K28"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="C30:K30"/>
     <mergeCell ref="D3:K3"/>
-    <mergeCell ref="G50:K50"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="H45:K45"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="G52:K52"/>
-    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="B59:G59"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="B70:D70"/>
     <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B74:K74"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="B47:K47"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="B59:K59"/>
+    <mergeCell ref="C40:K40"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="B76:K76"/>
+    <mergeCell ref="B45:K45"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="B75:K75"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="B64:G64"/>
+    <mergeCell ref="G69:K69"/>
+    <mergeCell ref="H50:K50"/>
     <mergeCell ref="B6:K7"/>
-    <mergeCell ref="H34:K34"/>
-    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="B63:G63"/>
     <mergeCell ref="C18:K18"/>
-    <mergeCell ref="B48:K48"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="C34:K34"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="B1:K1"/>
-    <mergeCell ref="G51:K51"/>
-    <mergeCell ref="B36:G37"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="B73:K73"/>
     <mergeCell ref="F5:K5"/>
-    <mergeCell ref="B49:K49"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="B61:G61"/>
+    <mergeCell ref="B65:K65"/>
     <mergeCell ref="C22:K22"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="C31:K31"/>
+    <mergeCell ref="H48:K48"/>
     <mergeCell ref="C12:K12"/>
-    <mergeCell ref="B38:G38"/>
     <mergeCell ref="C21:K21"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="H46:K47"/>
     <mergeCell ref="F9:K9"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="G53:K53"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="B66:K66"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="G68:K68"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="B77:K77"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="B67:K67"/>
     <mergeCell ref="C24:K24"/>
-    <mergeCell ref="B61:K61"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="C33:K33"/>
+    <mergeCell ref="C42:K42"/>
+    <mergeCell ref="B58:G58"/>
+    <mergeCell ref="B78:K78"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="H57:K57"/>
     <mergeCell ref="C16:K16"/>
-    <mergeCell ref="B42:G42"/>
     <mergeCell ref="C25:K25"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="B55:K55"/>
+    <mergeCell ref="B60:G60"/>
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="G71:K71"/>
     <mergeCell ref="F8:K8"/>
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="B35:K35"/>
-    <mergeCell ref="H36:K37"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B79:K79"/>
+    <mergeCell ref="C39:K39"/>
     <mergeCell ref="C9:D9"/>
-    <mergeCell ref="H44:K44"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="B27:K27"/>
-    <mergeCell ref="B58:K58"/>
+    <mergeCell ref="C37:K37"/>
     <mergeCell ref="C13:K13"/>
-    <mergeCell ref="H46:K46"/>
-    <mergeCell ref="H28:K29"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="C52:D52"/>
     <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B60:K60"/>
+    <mergeCell ref="B62:G62"/>
+    <mergeCell ref="H51:K51"/>
     <mergeCell ref="C15:K15"/>
-    <mergeCell ref="B57:K57"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B53:K53"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="H54:K55"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation sqref="C11 C13:C14" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" promptTitle="Nombre de la meta de producto" prompt="Describa el nombre de la meta, según el plan de desarrollo"/>
